--- a/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -223,6 +223,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Œóï, âú îå öïóéóå èîàóû?\nÎô, îåó óàë îåó, üê, üê...</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey, hey! Those guys you\nwere talking with…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They looked like some rough\ncustomers, hey, hey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй, эй! Эти ребята, с\nкоторыми вы говорили...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они какие-то грубоватые, эй,\nэй?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê, üê! Üóé ñåáÿóà, ò\nëïóïñúíé âú ãïâïñéìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé ëàëéå-óï ãñôáïâàóúå, üê,\nüê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re going to have a putrid\ntime, hey, hey…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0609.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нас ожидают вонючие времена,\nэй, эй...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàò ïçéäàýó âïîýœéå âñåíåîà,\nüê, üê…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! It\'s no time to be\nlosing motivation! What\'s a little stink?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s an expedition coming up,\nhey, hey!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0703.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро начнётся экспедиция, эй,\nэй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï îàœîæóòÿ üëòðåäéøéÿ, üê,\nüê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Сейчас не время терять\nмотивацию! Что нам этот запах?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Òåêœàò îå âñåíÿ óåñÿóû\níïóéâàøéý! Œóï îàí üóïó èàðàö?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! I\'m not about to lose!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We all want to win a place on\nthe expedition, hey, hey!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0703.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Я не собираюсь\nсдаваться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы все хотим получить место в\nэкспедиции, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Ÿ îå òïáéñàýòû\nòäàâàóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú âòå öïóéí ðïìôœéóû íåòóï â\nüëòðåäéøéé, üê, üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No time to chat! Have to get\nready for the expedition, hey, hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/um0805.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нет времени на болтовню! Нужно\nготовиться к экспедиции, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåó âñåíåîé îà áïìóïâîý! Îôçîï\nãïóïâéóûòÿ ë üëòðåäéøéé, üê, üê!</t>
   </si>
 </sst>
 </file>
@@ -261,7 +348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -302,11 +389,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -330,6 +428,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,7 +978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>633</v>
       </c>
@@ -888,7 +992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>636</v>
       </c>
@@ -902,7 +1006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>641</v>
       </c>
@@ -916,18 +1020,149 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7">
         <v>646</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
+        <v>586</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7">
+        <v>589</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="9">
+        <v>567</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4">
+        <v>545</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7">
+        <v>548</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="4">
+        <v>523</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7">
+        <v>526</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="4">
+        <v>504</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -310,6 +310,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Îåó âñåíåîé îà áïìóïâîý! Îôçîï\nãïóïâéóûòÿ ë üëòðåäéøéé, üê, üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey, hey! I\'m going after\noutlaws from the Outlaw Notice Board today!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s look good training! Hey,\nhey, hey!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй, эй! Сегодня я буду\nохотиться за негодяями с Доски\nРазыскиваемых!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пора хорошенько потренироваться!\nЭй, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê, üê! Òåãïäîÿ ÿ áôäô\nïöïóéóûòÿ èà îåãïäÿÿíé ò Äïòëé\nÑàèúòëéâàåíúö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïñà öïñïšåîûëï ðïóñåîéñïâàóûòÿ!\nÜê, üê, üê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1304.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s catch that thieving [CS:N]Grovyle[CR],\nhey, hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы поймаем этого похитителя\n[CS:N]Гровайла[CR], эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïêíàåí üóïãï ðïöéóéóåìÿ\n[CS:N]Ãñïâàêìà[CR], üê, üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! Not knowing what\'s\nbeen happening…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! That\'s stressful, I say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, all we can do is keep doing\nour usual work, hey, hey.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1610.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Незнание происходящего...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Должен сказать, это меня\nнапрягает.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, всё что мы можем сделать,\nэто работать как и прежде, эй, эй.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Îåèîàîéå ðñïéòöïäÿþåãï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Äïìçåî òëàèàóû, üóï íåîÿ\nîàðñÿãàåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, âòæ œóï íú íïçåí òäåìàóû,\nüóï ñàáïóàóû ëàë é ðñåçäå, üê, üê.</t>
   </si>
 </sst>
 </file>
@@ -716,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,20 +1212,114 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="9">
         <v>504</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="4">
+        <v>482</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7">
+        <v>485</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="9">
+        <v>463</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4">
+        <v>438</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>441</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>444</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -373,6 +373,48 @@
   </si>
   <si>
     <t xml:space="preserve"> Îô, âòæ œóï íú íïçåí òäåìàóû,\nüóï ñàáïóàóû ëàë é ðñåçäå, üê, üê.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! [CS:P]Brine Cave[CR] has some\nnasty enemies on the loose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone\'d better get stocked up\nwith proper equipment, hey, hey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! В [CS:P]Пещере у Моря[CR] нас\nподжидают очень опасные враги.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам всем нужно запастись\nподходящим снаряжением, эй, эй.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Â [CS:P]Ðåþåñå ô Íïñÿ[CR] îàò\nðïäçéäàýó ïœåîû ïðàòîúå âñàãé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí âòåí îôçîï èàðàòóéòû\nðïäöïäÿþéí òîàñÿçåîéåí, üê, üê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! I believe in you!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2406.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know you\'ll get things done,\nhey, hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Я верю в вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знаю, что у вас всё получится,\nэй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Ÿ âåñý â âàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàý, œóï ô âàò âòæ ðïìôœéóòÿ,\nüê, üê!</t>
   </si>
 </sst>
 </file>
@@ -779,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1336,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>441</v>
       </c>
@@ -1308,18 +1350,82 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7">
         <v>444</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="8" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="4">
+        <v>416</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7">
+        <v>419</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="4">
+        <v>394</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>397</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -415,6 +415,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ èîàý, œóï ô âàò âòæ ðïìôœéóòÿ,\nüê, üê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2506.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck on the graduation\nexam. Hey, hey, hey!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам на выпускном экзамене.\nЭй, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí îà âúðôòëîïí üëèàíåîå.\nÜê, üê, üê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visiting the guild, hey, hey?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Makes me glad to see you!\nHey, hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Even after you graduate, you\'re\nfree to look up jobs on the boards and go after\noutlaws.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So keep taking on those jobs,\nhey, hey.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0111.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Посещаете гильдию, эй, эй?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рад вас здесь видеть! Эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Даже после выпуска вы по\nпрежнему можете смотреть задания на доске\nобъявлений и ловить негодяев.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, беритесь за всё, что\nвам угодно, эй, эй.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòåþàåóå ãéìûäéý, üê, üê?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàä âàò èäåòû âéäåóû! Üê, üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàçå ðïòìå âúðôòëà âú ðï\nðñåçîåíô íïçåóå òíïóñåóû èàäàîéÿ îà äïòëå\nïáùÿâìåîéê é ìïâéóû îåãïäÿåâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, áåñéóåòû èà âòæ, œóï\nâàí ôãïäîï, üê, üê.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us3103.ssb</t>
   </si>
 </sst>
 </file>
@@ -821,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,18 +1474,109 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4">
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="7">
         <v>397</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="8" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="4">
+        <v>375</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="4">
+        <v>328</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="4">
+        <v>331</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>334</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>337</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="242">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -475,6 +475,276 @@
   </si>
   <si>
     <t>SCRIPT/G01P03A/us3103.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secret Rank?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not anything I\'ve heard of,\nhey, hey…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, maybe someone pulled a\ntrick on you, hey, hey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Секретный Ранг?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я о нём ничего не слышал,\nэй, эй...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, может, кто-то подшутил над\nвами, эй, эй?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåëñåóîúê Ñàîã?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ï îæí îéœåãï îå òìúšàì,\nüê, üê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, íïçåó, ëóï-óï ðïäšôóéì îàä\nâàíé, üê, üê?</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P01A/us0303.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! Another great day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You know something...[K] [CS:N]Sunflora[CR]\nhas been pretty excited lately, hey, hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saying stuff like...[K] \"Oh my gosh!\nThe [CS:P]Surrounded Sea[CR]! Oh my gosh!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \"Oh my gosh! No one\'s seen it\nfor tens of thousands of years!\"[K] That sort of\nthing, hey, hey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She\'s been on a tear about that\nall by herself, hey, hey…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Sunflora[CR] is down in the guild\'s\nlower level right now, hey, hey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you\'re interested, you should\nchat with [CS:N]Sunflora[CR], hey, hey! She\'s itching to\ngab about it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Сегодня чудесный день!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Знаете...[K] В последнее время\n[CS:N]Санфлора[CR] какая-то взвинченная, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Она постоянно куда-то всё\nпорывается пойти, эй, эй...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Санфлора[CR] сейчас на нижнем\nподуровне гильдии, эй, эй.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если вам интересно, поговорите\nс [CS:N]Санфлорой[CR], эй, эй! Она с радостью вам\nвсё расскажет!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \"О боже мой! Его никто не видел\nуже десять тысяч лет!\"[K]\nЧто-то такое, эй, эй?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Òåãïäîÿ œôäåòîúê äåîû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàåóå...[K] Â ðïòìåäîåå âñåíÿ\n[CS:N]Òàîõìïñà[CR] ëàëàÿ-óï âèâéîœåîîàÿ, üê, üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \"Ï áïçå íïê! Åãï îéëóï îå âéäåì\nôçå äåòÿóû óúòÿœ ìåó!\"[K]\nŒóï-óï óàëïå, üê, üê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîà ðïòóïÿîîï ëôäà-óï âòæ\nðïñúâàåóòÿ ðïêóé, üê, üê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Òàîõìïñà[CR] òåêœàò îà îéçîåí\nðïäôñïâîå ãéìûäéé, üê, üê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé âàí éîóåñåòîï, ðïãïâïñéóå\nò [CS:N]Òàîõìïñïê[CR], üê, üê! Ïîà ò ñàäïòóûý âàí\nâòæ ñàòòëàçåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорит нечто вроде...[K]\n\"О боже мой! [CS:P]Закрытое Море[CR]! О боже мой!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñéó îåœóï âñïäå...[K]\n\"Ï áïçå íïê! [CS:P]Èàëñúóïå Íïñå[CR]! Ï áïçå íïê!\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey, you two![K] So what\'d\n[CS:N]Sunflora[CR] say, hey, hey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Oh yeah...[K]Uh-huh...[K]\nGotcha, hey, hey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Sunflora[CR] gets kind of confusing\nwhen she\'s really excited, hey. So I didn\'t\nget what she was saying, hey, hey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But now that I hear it from you,\nhey, hey, it does sound epic and adventurous!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The [CS:P]Surrounded Sea[CR]...[K] What sort\nof treasures do you think one would find there,\nhey, hey, hey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй, вы двое![K] Ну, что [CS:N]Санфлора[CR]\nвам сказала, эй, эй?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]О, ага...[K] Угу...[K]\nПонятно, эй, эй.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда [CS:N]Санфлора[CR] раззадоривается,\nеё становится трудно понять. И я не\nпонимал, что она говорила, эй, эй?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но теперь, когда вы мне всё\nрассказали, эй, эй, эта история начинает\nказаться интересной и увлекательной!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Закрытое Море[CR]... Какие же\nсокровища можно там найти, эй, эй, эй?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê, âú äâïå![K] Îô, œóï [CS:N]Òàîõìïñà[CR]\nâàí òëàèàìà, üê, üê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Ï, àãà...[K] Ôãô...[K]\nÐïîÿóîï, üê, üê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà [CS:N]Òàîõìïñà[CR] ñàèèàäïñéâàåóòÿ,\nåæ òóàîïâéóòÿ óñôäîï ðïîÿóû. É ÿ îå\nðïîéíàì, œóï ïîà ãïâïñéìà, üê, üê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï óåðåñû, ëïãäà âú íîå âòæ\nñàòòëàèàìé, üê, üê, üóà éòóïñéÿ îàœéîàåó\nëàèàóûòÿ éîóåñåòîïê é ôâìåëàóåìûîïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Èàëñúóïå Íïñå[CR]... Ëàëéå çå\nòïëñïâéþà íïçîï óàí îàêóé, üê, üê, üê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey![K] What happened to that\nlittle baby?</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0311.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй![K] Что случилось с тем\nмалышом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê![K] Œóï òìôœéìïòû ò óåí\níàìúšïí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That baby [CS:N]Manaphy[CR] must only\ngrow in the sea, hey, hey…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Малыш [CS:N]Манафи[CR] может расти только\nв море, эй, эй...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íàìúš [CS:N]Íàîàõé[CR] íïçåó ñàòóé óïìûëï\nâ íïñå, üê, üê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He may come back one day,\nhey, hey?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он ведь ещё вернётся, эй, эй?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî âåäû åþæ âåñîæóòÿ, üê, üê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s have another fun day of\nexploring, hey, hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Самое время для ещё одного\nувлекательного дня исследований, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òàíïå âñåíÿ äìÿ åþæ ïäîïãï\nôâìåëàóåìûîïãï äîÿ éòòìåäïâàîéê, üê, üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey, hey![K] Hey, hey, hey!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us0405.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй, эй![K] Эй, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê, üê![K] Üê, üê, üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m no good with mysteries and\nthings using my head, hey, hey, hey…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не очень то хорошо разгадываю\nтайны, эй, эй, эй...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå ïœåîû óï öïñïšï ñàèãàäúâàý\nóàêîú, üê, üê, üê...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0410.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! So tell me, what were\nthe mysteries of [CS:P]Aegis Cave[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]...[K]Uh-huh...[K] Hey, hey, I\ndon\'t understand any of it, hey…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Скажите, в чём был секрет\n[CS:P]Пещеры Эгиды[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]...[K]А-га...[K] Эй, эй, я ничего\nне понял, эй...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Òëàçéóå, â œæí áúì òåëñåó\n[CS:P]Ðåþåñú Üãéäú[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]...[K]À-ãà...[K] Üê, üê, ÿ îéœåãï\nîå ðïîÿì, üê...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! You have to find\n[CS:N]Drowzee[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2007.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Вам нужно найти [CS:N]Дроузи[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Âàí îôçîï îàêóé [CS:N]Äñïôèé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! That [CS:N]Drowzee[CR] really\ndid turn his life around…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I feel bad for doubting him...\nHey, hey…</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/us2009.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! [CS:N]Дроузи[CR] и правда\nисправился...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне стыдно, что я в нём\nсомневался... Эй, эй...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! [CS:N]Äñïôèé[CR] é ðñàâäà\néòðñàâéìòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå òóúäîï, œóï ÿ â îæí\nòïíîåâàìòÿ... Üê, üê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! Don\'t let that [CS:N]Darkrai[CR]\nbeat you now, hey, hey!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Не позволяйте [CS:N]Даркраю[CR]\nпобедить вас, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Îå ðïèâïìÿêóå [CS:N]Äàñëñàý[CR]\nðïáåäéóû âàò, üê, üê!</t>
   </si>
 </sst>
 </file>
@@ -513,7 +783,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -565,11 +835,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -599,6 +878,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,17 +1851,432 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="4">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11">
         <v>337</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="12" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="4">
+        <v>303</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>306</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11">
+        <v>309</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="4">
+        <v>266</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>269</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>272</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>275</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>278</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>281</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7">
+        <v>284</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="4">
+        <v>235</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>238</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>241</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>244</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7">
+        <v>247</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="9">
+        <v>216</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>197</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="9">
+        <v>178</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7">
+        <v>159</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" s="9">
+        <v>140</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7">
+        <v>121</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="4">
+        <v>99</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="7">
+        <v>102</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="9">
+        <v>80</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" s="4">
+        <v>57</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7">
+        <v>61</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="4">
+        <v>38</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Корфиш.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="246">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Üê, üê! Îå ðïèâïìÿêóå [CS:N]Äàñëñàý[CR]\nðïáåäéóû âàò, üê, üê!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2206.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, hey! Let\'s have another fun\nday of exploring, hey, hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, эй! Самое время для ещё одного\nувлекательного дня исследований, эй, эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üê! Òàíïå âñåíÿ äìÿ åþæ ïäîïãï\nôâìåëàóåìûîïãï äîÿ éòòìåäïâàîéê, üê, üê!</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,20 +2275,37 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="9">
         <v>38</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="10" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B72" s="9">
+        <v>18</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
